--- a/selenium_tutorial/src/main/java/io/excel/xlsx/Company.xlsx
+++ b/selenium_tutorial/src/main/java/io/excel/xlsx/Company.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\Java\SeleniumJava\selenium_tutorial\src\main\java\io\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E18C1C9-FCE9-4057-9A2F-17EA09A3B8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B9206-149C-40BD-A8A2-2324E9D2E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>ADMIN</t>
+  </si>
+  <si>
+    <t>BOMUS PERCENTAGE</t>
+  </si>
+  <si>
+    <t>E123456</t>
+  </si>
+  <si>
+    <t>Sri Aiyappa Swami</t>
+  </si>
+  <si>
+    <t>Tirupati, Telengana,PIN-100245</t>
+  </si>
+  <si>
+    <t>e123456@company.com</t>
+  </si>
+  <si>
+    <t>SALES</t>
   </si>
 </sst>
 </file>
@@ -315,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +396,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -661,23 +697,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,17 +756,20 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="22">
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -737,7 +778,7 @@
       <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="24">
         <v>1234567890</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -761,18 +802,22 @@
       <c r="M2" s="4">
         <v>20000</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="26">
         <v>0.125</v>
       </c>
+      <c r="O2" s="4">
+        <f>M2*N2</f>
+        <v>2500</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="23">
         <v>40</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -781,7 +826,7 @@
       <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="25">
         <v>3216549874</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -803,18 +848,22 @@
       <c r="M3" s="9">
         <v>50000</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="27">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O5" si="0">M3*N3</f>
+        <v>2250</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="23">
         <v>25</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -823,7 +872,7 @@
       <c r="E4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="25">
         <v>9999888877</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -845,18 +894,22 @@
       <c r="M4" s="9">
         <v>10000</v>
       </c>
-      <c r="N4" s="9">
-        <v>0.25</v>
+      <c r="N4" s="27">
+        <v>1.25</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="23">
         <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -865,7 +918,7 @@
       <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="25">
         <v>4456112398</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -889,8 +942,56 @@
       <c r="M5" s="9">
         <v>25000</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="27">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="25">
+        <v>7744558896</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="11">
+        <v>27476</v>
+      </c>
+      <c r="K6" s="12">
+        <v>36744</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="9">
+        <v>100000</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="4" t="str">
+        <f>_xlfn.CONCAT("NOT","ELLIGIBLE")</f>
+        <v>NOTELLIGIBLE</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +1000,7 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{9B30E30D-F10A-4E27-93FC-EE6138F69C45}"/>
     <hyperlink ref="H5" r:id="rId3" xr:uid="{212AE862-8244-4417-8C65-F4F1FD7928B0}"/>
     <hyperlink ref="H4" r:id="rId4" xr:uid="{BBBBBD67-62D5-4D7E-96E8-7D7EB256011D}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{8FC195AF-7DB6-49FA-993B-BBE0230A1FC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
